--- a/Eichel etal data/elife-52654-fig7-data1-v2.xlsx
+++ b/Eichel etal data/elife-52654-fig7-data1-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine/Desktop/Final files eLIfe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/Projects/PyCharm/Channel_coexpression/Eichel etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1060F5-69DA-6B4F-A296-48CFB2CC082C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C7B2B-B835-614E-9728-5F25D624749A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{DA8AA3F6-D87D-F84B-B4B3-45D3D96A75AA}"/>
   </bookViews>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -259,7 +264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -557,11 +562,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE157A2-6748-174D-AF63-3B2D0B9DB107}">
   <dimension ref="B3:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -2781,22 +2789,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="B48:B58"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B19:B32"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Eichel etal data/elife-52654-fig7-data1-v2.xlsx
+++ b/Eichel etal data/elife-52654-fig7-data1-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/Projects/PyCharm/Channel_coexpression/Eichel etal data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/PyCharm/Channel_coexpression/Eichel etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C7B2B-B835-614E-9728-5F25D624749A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC96DD-5F00-154C-B606-2C18D784D258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{DA8AA3F6-D87D-F84B-B4B3-45D3D96A75AA}"/>
+    <workbookView xWindow="60" yWindow="600" windowWidth="25040" windowHeight="14500" xr2:uid="{DA8AA3F6-D87D-F84B-B4B3-45D3D96A75AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 7a" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -196,6 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE157A2-6748-174D-AF63-3B2D0B9DB107}">
   <dimension ref="B3:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="W29" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,7 +630,7 @@
       <c r="Y3" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AB3" t="s">
@@ -704,7 +711,7 @@
       <c r="Y4">
         <v>1.5575135903628641</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="4">
         <v>1</v>
       </c>
       <c r="AB4">
@@ -776,7 +783,7 @@
       <c r="Y5">
         <v>0.8679976729023744</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="4">
         <v>0.51312196265195475</v>
       </c>
       <c r="AB5">
@@ -848,7 +855,7 @@
       <c r="Y6">
         <v>0.9295254692787549</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="4">
         <v>0.54089292973340763</v>
       </c>
       <c r="AB6">
@@ -896,6 +903,7 @@
       <c r="O7">
         <v>0.1869039824722388</v>
       </c>
+      <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -938,6 +946,7 @@
       <c r="O8">
         <v>-0.1299063485833325</v>
       </c>
+      <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
@@ -969,6 +978,7 @@
       <c r="O9">
         <v>-9.3519845571082935E-2</v>
       </c>
+      <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
@@ -1000,6 +1010,7 @@
       <c r="O10">
         <v>-9.5795524989893702E-2</v>
       </c>
+      <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
@@ -1031,6 +1042,7 @@
       <c r="O11">
         <v>-9.7671743722682489E-2</v>
       </c>
+      <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
@@ -1073,6 +1085,7 @@
       <c r="O12">
         <v>-5.1498041920721827E-2</v>
       </c>
+      <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
@@ -1104,6 +1117,7 @@
       <c r="O13">
         <v>-9.3447634686606523E-2</v>
       </c>
+      <c r="AA13" s="4"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
@@ -1135,6 +1149,7 @@
       <c r="O14">
         <v>-9.1152743987295504E-2</v>
       </c>
+      <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
@@ -1166,6 +1181,7 @@
       <c r="O15">
         <v>-8.9232238749556367E-2</v>
       </c>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
@@ -1178,6 +1194,13 @@
       <c r="M16">
         <v>0.19769339525685584</v>
       </c>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="2:32" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
@@ -1231,7 +1254,7 @@
       <c r="Y19" t="s">
         <v>11</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AB19" t="s">
@@ -1312,7 +1335,7 @@
       <c r="Y20">
         <v>1.4907289333217411</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="4">
         <v>1</v>
       </c>
       <c r="AB20">
@@ -1382,7 +1405,7 @@
       <c r="Y21">
         <v>0.91470768026182303</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="4">
         <v>0.53903670307829443</v>
       </c>
       <c r="AB21">
@@ -1452,7 +1475,7 @@
       <c r="Y22">
         <v>1.0393370012117846</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="4">
         <v>0.6002217753891036</v>
       </c>
       <c r="AB22">
@@ -1498,6 +1521,7 @@
       <c r="O23">
         <v>0.16627744100600567</v>
       </c>
+      <c r="AA23" s="4"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -1540,6 +1564,7 @@
       <c r="O24">
         <v>-0.1205706386142805</v>
       </c>
+      <c r="AA24" s="4"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -1571,6 +1596,7 @@
       <c r="O25">
         <v>-6.781901716325249E-2</v>
       </c>
+      <c r="AA25" s="4"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
@@ -1602,6 +1628,7 @@
       <c r="O26">
         <v>-0.12762164076127144</v>
       </c>
+      <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
@@ -1633,6 +1660,7 @@
       <c r="O27">
         <v>-0.10408879997057961</v>
       </c>
+      <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
@@ -1675,6 +1703,7 @@
       <c r="O28">
         <v>-4.1065986547473649E-2</v>
       </c>
+      <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
@@ -1706,6 +1735,7 @@
       <c r="O29">
         <v>-9.9227571353247362E-2</v>
       </c>
+      <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
@@ -1737,6 +1767,7 @@
       <c r="O30">
         <v>-3.084425860289149E-2</v>
       </c>
+      <c r="AA30" s="4"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
@@ -1768,6 +1799,7 @@
       <c r="O31">
         <v>-6.2188641035426109E-2</v>
       </c>
+      <c r="AA31" s="4"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
@@ -1780,6 +1812,13 @@
       <c r="M32">
         <v>0.14579711562369535</v>
       </c>
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA33" s="4"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA34" s="4"/>
     </row>
     <row r="35" spans="2:32" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
@@ -1833,7 +1872,7 @@
       <c r="Y35" t="s">
         <v>11</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AA35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AB35" t="s">
@@ -1914,7 +1953,7 @@
       <c r="Y36">
         <v>1.4857360367768502</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="4">
         <v>1</v>
       </c>
       <c r="AB36">
@@ -1984,7 +2023,7 @@
       <c r="Y37">
         <v>1.197908844977206</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="4">
         <v>0.56475282732116805</v>
       </c>
       <c r="AB37">
@@ -2054,7 +2093,7 @@
       <c r="Y38">
         <v>1.2183499673839193</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="4">
         <v>0.59042625607287935</v>
       </c>
       <c r="AB38">
@@ -2111,6 +2150,7 @@
       <c r="O39">
         <v>-1.1360055496319341E-2</v>
       </c>
+      <c r="AA39" s="4"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
@@ -2142,6 +2182,7 @@
       <c r="O40">
         <v>-0.1245680757109428</v>
       </c>
+      <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
@@ -2173,6 +2214,7 @@
       <c r="O41">
         <v>-0.13152070336714469</v>
       </c>
+      <c r="AA41" s="4"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
@@ -2215,6 +2257,7 @@
       <c r="O42">
         <v>-0.14193158714305351</v>
       </c>
+      <c r="AA42" s="4"/>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
@@ -2246,6 +2289,7 @@
       <c r="O43">
         <v>-3.894872799485026E-2</v>
       </c>
+      <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
@@ -2277,15 +2321,19 @@
       <c r="O44">
         <v>-2.8646774296461966E-2</v>
       </c>
+      <c r="AA44" s="4"/>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
+      <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
+      <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
+      <c r="AA47" s="4"/>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
@@ -2339,7 +2387,7 @@
       <c r="Y48" t="s">
         <v>11</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AA48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AB48" t="s">
@@ -2420,7 +2468,7 @@
       <c r="Y49">
         <v>1.1712645524131227</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" s="4">
         <v>1</v>
       </c>
       <c r="AB49">
@@ -2490,7 +2538,7 @@
       <c r="Y50">
         <v>1.0815106843812838</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="4">
         <v>0.96811970431800043</v>
       </c>
       <c r="AB50">
@@ -2560,7 +2608,7 @@
       <c r="Y51">
         <v>1.0959731169578841</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="4">
         <v>1.0008282591038471</v>
       </c>
       <c r="AB51">
@@ -2789,22 +2837,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B19:B32"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C20:C23"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="B48:B58"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
